--- a/3_Backtest/Export/actions_20210630_220325_close.xlsx
+++ b/3_Backtest/Export/actions_20210630_220325_close.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Aron/Documents/GitHub/Data/Stock_Forecast/3_Backtest/Export/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89AABFBA-0E27-B543-B786-1995CD865B6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{174E6891-03AE-ED4A-BC63-1C1627B64E9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -894,12 +894,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -929,7 +935,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -937,6 +943,10 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="182" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="181" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="182" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -1277,8 +1287,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AE198"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" topLeftCell="A150" zoomScale="115" workbookViewId="0">
+      <selection activeCell="H88" sqref="H88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -1286,7 +1296,7 @@
     <col min="1" max="1" width="9.19921875" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="10.3984375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.19921875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.19921875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="25.59765625" customWidth="1"/>
     <col min="9" max="12" width="10.19921875" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="15.19921875" bestFit="1" customWidth="1"/>
     <col min="18" max="31" width="9.19921875" bestFit="1" customWidth="1"/>
@@ -9272,169 +9282,169 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:31">
-      <c r="A97">
-        <v>0</v>
-      </c>
-      <c r="B97" t="s">
+    <row r="97" spans="1:31" s="5" customFormat="1">
+      <c r="A97" s="5">
+        <v>0</v>
+      </c>
+      <c r="B97" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="C97" t="s">
-        <v>155</v>
-      </c>
-      <c r="D97" t="s">
+      <c r="C97" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="D97" s="5" t="s">
         <v>218</v>
       </c>
-      <c r="E97">
-        <v>20210701</v>
-      </c>
-      <c r="F97">
+      <c r="E97" s="5">
+        <v>20210701</v>
+      </c>
+      <c r="F97" s="5">
         <v>20210630</v>
       </c>
-      <c r="G97" s="2">
+      <c r="G97" s="6">
         <v>4.985616569578653</v>
       </c>
-      <c r="H97" s="3">
+      <c r="H97" s="7">
         <v>0.11318085288487301</v>
       </c>
-      <c r="I97" s="4">
+      <c r="I97" s="8">
         <v>49.03561656957865</v>
       </c>
-      <c r="J97" s="4">
+      <c r="J97" s="8">
         <v>49.832689418011903</v>
       </c>
-      <c r="K97" s="4">
+      <c r="K97" s="8">
         <v>47.006425921261311</v>
       </c>
-      <c r="L97" s="4">
+      <c r="L97" s="8">
         <v>48.990069810509681</v>
       </c>
-      <c r="Q97">
+      <c r="Q97" s="5">
         <v>44.05</v>
       </c>
-      <c r="R97">
+      <c r="R97" s="5">
         <v>44.45</v>
       </c>
-      <c r="S97">
+      <c r="S97" s="5">
         <v>43.9</v>
       </c>
-      <c r="T97">
+      <c r="T97" s="5">
         <v>43.9</v>
       </c>
-      <c r="U97">
-        <v>3.9538140859506153E-2</v>
-      </c>
-      <c r="V97">
-        <v>1</v>
-      </c>
-      <c r="W97">
-        <v>4</v>
-      </c>
-      <c r="X97">
+      <c r="U97" s="5">
+        <v>3.9538140859506153E-2</v>
+      </c>
+      <c r="V97" s="5">
+        <v>1</v>
+      </c>
+      <c r="W97" s="5">
+        <v>4</v>
+      </c>
+      <c r="X97" s="5">
         <v>5.3826894180118998</v>
       </c>
-      <c r="Y97">
+      <c r="Y97" s="5">
         <v>0.1210953749833948</v>
       </c>
-      <c r="Z97">
+      <c r="Z97" s="5">
         <v>3.1064259212613119</v>
       </c>
-      <c r="AA97">
+      <c r="AA97" s="5">
         <v>7.0761410507091393E-2</v>
       </c>
-      <c r="AB97">
+      <c r="AB97" s="5">
         <v>5.0900698105096822</v>
       </c>
-      <c r="AC97">
+      <c r="AC97" s="5">
         <v>0.115946920512749</v>
       </c>
-      <c r="AD97">
-        <v>1</v>
-      </c>
-      <c r="AE97">
+      <c r="AD97" s="5">
+        <v>1</v>
+      </c>
+      <c r="AE97" s="5">
         <v>2</v>
       </c>
     </row>
-    <row r="98" spans="1:31">
-      <c r="A98">
-        <v>0</v>
-      </c>
-      <c r="B98" t="s">
+    <row r="98" spans="1:31" s="5" customFormat="1">
+      <c r="A98" s="5">
+        <v>0</v>
+      </c>
+      <c r="B98" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="C98" t="s">
-        <v>155</v>
-      </c>
-      <c r="D98" t="s">
+      <c r="C98" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="D98" s="5" t="s">
         <v>218</v>
       </c>
-      <c r="E98">
+      <c r="E98" s="5">
         <v>20210702</v>
       </c>
-      <c r="F98">
-        <v>20210701</v>
-      </c>
-      <c r="G98" s="2">
+      <c r="F98" s="5">
+        <v>20210701</v>
+      </c>
+      <c r="G98" s="6">
         <v>2.4432457160949781</v>
       </c>
-      <c r="H98" s="3">
+      <c r="H98" s="7">
         <v>5.5465282998750927E-2</v>
       </c>
-      <c r="I98" s="4">
+      <c r="I98" s="8">
         <v>46.493245716094982</v>
       </c>
-      <c r="J98" s="4">
+      <c r="J98" s="8">
         <v>48.102345446079973</v>
       </c>
-      <c r="K98" s="4">
+      <c r="K98" s="8">
         <v>45.346464694261563</v>
       </c>
-      <c r="L98" s="4">
+      <c r="L98" s="8">
         <v>47.151358162283898</v>
       </c>
-      <c r="Q98">
+      <c r="Q98" s="5">
         <v>44.05</v>
       </c>
-      <c r="R98">
+      <c r="R98" s="5">
         <v>44.45</v>
       </c>
-      <c r="S98">
+      <c r="S98" s="5">
         <v>43.9</v>
       </c>
-      <c r="T98">
+      <c r="T98" s="5">
         <v>43.9</v>
       </c>
-      <c r="U98">
-        <v>3.9538140859506153E-2</v>
-      </c>
-      <c r="V98">
-        <v>1</v>
-      </c>
-      <c r="W98">
-        <v>4</v>
-      </c>
-      <c r="X98">
+      <c r="U98" s="5">
+        <v>3.9538140859506153E-2</v>
+      </c>
+      <c r="V98" s="5">
+        <v>1</v>
+      </c>
+      <c r="W98" s="5">
+        <v>4</v>
+      </c>
+      <c r="X98" s="5">
         <v>3.6523454460799631</v>
       </c>
-      <c r="Y98">
+      <c r="Y98" s="5">
         <v>8.2167501599099274E-2</v>
       </c>
-      <c r="Z98">
+      <c r="Z98" s="5">
         <v>1.4464646942615571</v>
       </c>
-      <c r="AA98">
+      <c r="AA98" s="5">
         <v>3.2949081873839582E-2</v>
       </c>
-      <c r="AB98">
+      <c r="AB98" s="5">
         <v>3.2513581622838998</v>
       </c>
-      <c r="AC98">
+      <c r="AC98" s="5">
         <v>7.406282829803873E-2</v>
       </c>
-      <c r="AD98">
-        <v>1</v>
-      </c>
-      <c r="AE98">
+      <c r="AD98" s="5">
+        <v>1</v>
+      </c>
+      <c r="AE98" s="5">
         <v>2</v>
       </c>
     </row>
@@ -15331,169 +15341,169 @@
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="1:31">
-      <c r="A170">
-        <v>0</v>
-      </c>
-      <c r="B170" t="s">
+    <row r="170" spans="1:31" s="5" customFormat="1">
+      <c r="A170" s="5">
+        <v>0</v>
+      </c>
+      <c r="B170" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="C170" t="s">
-        <v>155</v>
-      </c>
-      <c r="D170" t="s">
+      <c r="C170" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="D170" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="E170">
-        <v>20210701</v>
-      </c>
-      <c r="F170">
+      <c r="E170" s="5">
+        <v>20210701</v>
+      </c>
+      <c r="F170" s="5">
         <v>20210630</v>
       </c>
-      <c r="G170" s="2">
+      <c r="G170" s="6">
         <v>3.0653885361957549</v>
       </c>
-      <c r="H170" s="3">
+      <c r="H170" s="7">
         <v>0.10850932871489399</v>
       </c>
-      <c r="I170" s="4">
+      <c r="I170" s="8">
         <v>31.315388536195751</v>
       </c>
-      <c r="J170" s="4">
+      <c r="J170" s="8">
         <v>31.69710773212493</v>
       </c>
-      <c r="K170" s="4">
+      <c r="K170" s="8">
         <v>29.93010790015876</v>
       </c>
-      <c r="L170" s="4">
+      <c r="L170" s="8">
         <v>31.457674819123739</v>
       </c>
-      <c r="Q170">
+      <c r="Q170" s="5">
         <v>28.25</v>
       </c>
-      <c r="R170">
+      <c r="R170" s="5">
         <v>28.5</v>
       </c>
-      <c r="S170">
+      <c r="S170" s="5">
         <v>28.25</v>
       </c>
-      <c r="T170">
+      <c r="T170" s="5">
         <v>28.25</v>
       </c>
-      <c r="U170">
-        <v>3.9538140859506153E-2</v>
-      </c>
-      <c r="V170">
-        <v>1</v>
-      </c>
-      <c r="W170">
-        <v>4</v>
-      </c>
-      <c r="X170">
+      <c r="U170" s="5">
+        <v>3.9538140859506153E-2</v>
+      </c>
+      <c r="V170" s="5">
+        <v>1</v>
+      </c>
+      <c r="W170" s="5">
+        <v>4</v>
+      </c>
+      <c r="X170" s="5">
         <v>3.1971077321249268</v>
       </c>
-      <c r="Y170">
+      <c r="Y170" s="5">
         <v>0.1121792186710501</v>
       </c>
-      <c r="Z170">
+      <c r="Z170" s="5">
         <v>1.6801079001587631</v>
       </c>
-      <c r="AA170">
+      <c r="AA170" s="5">
         <v>5.9472846023319051E-2</v>
       </c>
-      <c r="AB170">
+      <c r="AB170" s="5">
         <v>3.2076748191237421</v>
       </c>
-      <c r="AC170">
+      <c r="AC170" s="5">
         <v>0.1135460112964156</v>
       </c>
-      <c r="AD170">
-        <v>1</v>
-      </c>
-      <c r="AE170">
+      <c r="AD170" s="5">
+        <v>1</v>
+      </c>
+      <c r="AE170" s="5">
         <v>2</v>
       </c>
     </row>
-    <row r="171" spans="1:31">
-      <c r="A171">
-        <v>0</v>
-      </c>
-      <c r="B171" t="s">
+    <row r="171" spans="1:31" s="5" customFormat="1">
+      <c r="A171" s="5">
+        <v>0</v>
+      </c>
+      <c r="B171" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="C171" t="s">
-        <v>155</v>
-      </c>
-      <c r="D171" t="s">
+      <c r="C171" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="D171" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="E171">
+      <c r="E171" s="5">
         <v>20210702</v>
       </c>
-      <c r="F171">
-        <v>20210701</v>
-      </c>
-      <c r="G171" s="2">
+      <c r="F171" s="5">
+        <v>20210701</v>
+      </c>
+      <c r="G171" s="6">
         <v>2.7492130564421409</v>
       </c>
-      <c r="H171" s="3">
+      <c r="H171" s="7">
         <v>9.7317276334235078E-2</v>
       </c>
-      <c r="I171" s="4">
+      <c r="I171" s="8">
         <v>30.999213056442141</v>
       </c>
-      <c r="J171" s="4">
+      <c r="J171" s="8">
         <v>31.366378125879759</v>
       </c>
-      <c r="K171" s="4">
+      <c r="K171" s="8">
         <v>29.831581999953389</v>
       </c>
-      <c r="L171" s="4">
+      <c r="L171" s="8">
         <v>31.11044130437433</v>
       </c>
-      <c r="Q171">
+      <c r="Q171" s="5">
         <v>28.25</v>
       </c>
-      <c r="R171">
+      <c r="R171" s="5">
         <v>28.5</v>
       </c>
-      <c r="S171">
+      <c r="S171" s="5">
         <v>28.25</v>
       </c>
-      <c r="T171">
+      <c r="T171" s="5">
         <v>28.25</v>
       </c>
-      <c r="U171">
-        <v>3.9538140859506153E-2</v>
-      </c>
-      <c r="V171">
-        <v>1</v>
-      </c>
-      <c r="W171">
-        <v>4</v>
-      </c>
-      <c r="X171">
+      <c r="U171" s="5">
+        <v>3.9538140859506153E-2</v>
+      </c>
+      <c r="V171" s="5">
+        <v>1</v>
+      </c>
+      <c r="W171" s="5">
+        <v>4</v>
+      </c>
+      <c r="X171" s="5">
         <v>2.8663781258797632</v>
       </c>
-      <c r="Y171">
+      <c r="Y171" s="5">
         <v>0.10057467108350041</v>
       </c>
-      <c r="Z171">
+      <c r="Z171" s="5">
         <v>1.5815819999533891</v>
       </c>
-      <c r="AA171">
+      <c r="AA171" s="5">
         <v>5.5985203538173073E-2</v>
       </c>
-      <c r="AB171">
+      <c r="AB171" s="5">
         <v>2.860441304374334</v>
       </c>
-      <c r="AC171">
+      <c r="AC171" s="5">
         <v>0.1012545594468791</v>
       </c>
-      <c r="AD171">
-        <v>1</v>
-      </c>
-      <c r="AE171">
+      <c r="AD171" s="5">
+        <v>1</v>
+      </c>
+      <c r="AE171" s="5">
         <v>2</v>
       </c>
     </row>
@@ -16327,169 +16337,169 @@
         <v>1</v>
       </c>
     </row>
-    <row r="182" spans="1:31">
-      <c r="A182">
-        <v>0</v>
-      </c>
-      <c r="B182" t="s">
+    <row r="182" spans="1:31" s="5" customFormat="1">
+      <c r="A182" s="5">
+        <v>0</v>
+      </c>
+      <c r="B182" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="C182" t="s">
-        <v>155</v>
-      </c>
-      <c r="D182" t="s">
+      <c r="C182" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="D182" s="5" t="s">
         <v>271</v>
       </c>
-      <c r="E182">
-        <v>20210701</v>
-      </c>
-      <c r="F182">
+      <c r="E182" s="5">
+        <v>20210701</v>
+      </c>
+      <c r="F182" s="5">
         <v>20210630</v>
       </c>
-      <c r="G182" s="2">
+      <c r="G182" s="6">
         <v>3.7778888278722751</v>
       </c>
-      <c r="H182" s="3">
+      <c r="H182" s="7">
         <v>8.0380613358984568E-2</v>
       </c>
-      <c r="I182" s="4">
+      <c r="I182" s="8">
         <v>50.777888827872268</v>
       </c>
-      <c r="J182" s="4">
+      <c r="J182" s="8">
         <v>51.569209394913912</v>
       </c>
-      <c r="K182" s="4">
+      <c r="K182" s="8">
         <v>50.60213844065666</v>
       </c>
-      <c r="L182" s="4">
+      <c r="L182" s="8">
         <v>51.464389495384687</v>
       </c>
-      <c r="Q182">
+      <c r="Q182" s="5">
         <v>47</v>
       </c>
-      <c r="R182">
+      <c r="R182" s="5">
         <v>47.4</v>
       </c>
-      <c r="S182">
+      <c r="S182" s="5">
         <v>46.95</v>
       </c>
-      <c r="T182">
+      <c r="T182" s="5">
         <v>47.15</v>
       </c>
-      <c r="U182">
-        <v>3.9538140859506153E-2</v>
-      </c>
-      <c r="V182">
-        <v>1</v>
-      </c>
-      <c r="W182">
-        <v>4</v>
-      </c>
-      <c r="X182">
+      <c r="U182" s="5">
+        <v>3.9538140859506153E-2</v>
+      </c>
+      <c r="V182" s="5">
+        <v>1</v>
+      </c>
+      <c r="W182" s="5">
+        <v>4</v>
+      </c>
+      <c r="X182" s="5">
         <v>4.1692093949139144</v>
       </c>
-      <c r="Y182">
+      <c r="Y182" s="5">
         <v>8.7958004112107885E-2</v>
       </c>
-      <c r="Z182">
+      <c r="Z182" s="5">
         <v>3.6521384406566568</v>
       </c>
-      <c r="AA182">
+      <c r="AA182" s="5">
         <v>7.7787826212069366E-2</v>
       </c>
-      <c r="AB182">
+      <c r="AB182" s="5">
         <v>4.3143894953846953</v>
       </c>
-      <c r="AC182">
+      <c r="AC182" s="5">
         <v>9.1503488767437871E-2</v>
       </c>
-      <c r="AD182">
-        <v>1</v>
-      </c>
-      <c r="AE182">
+      <c r="AD182" s="5">
+        <v>1</v>
+      </c>
+      <c r="AE182" s="5">
         <v>2</v>
       </c>
     </row>
-    <row r="183" spans="1:31">
-      <c r="A183">
-        <v>0</v>
-      </c>
-      <c r="B183" t="s">
+    <row r="183" spans="1:31" s="5" customFormat="1">
+      <c r="A183" s="5">
+        <v>0</v>
+      </c>
+      <c r="B183" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="C183" t="s">
-        <v>155</v>
-      </c>
-      <c r="D183" t="s">
+      <c r="C183" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="D183" s="5" t="s">
         <v>271</v>
       </c>
-      <c r="E183">
+      <c r="E183" s="5">
         <v>20210702</v>
       </c>
-      <c r="F183">
-        <v>20210701</v>
-      </c>
-      <c r="G183" s="2">
+      <c r="F183" s="5">
+        <v>20210701</v>
+      </c>
+      <c r="G183" s="6">
         <v>2.3880467800080751</v>
       </c>
-      <c r="H183" s="3">
+      <c r="H183" s="7">
         <v>5.0809505957618621E-2</v>
       </c>
-      <c r="I183" s="4">
+      <c r="I183" s="8">
         <v>49.388046780008082</v>
       </c>
-      <c r="J183" s="4">
+      <c r="J183" s="8">
         <v>49.203246916526552</v>
       </c>
-      <c r="K183" s="4">
+      <c r="K183" s="8">
         <v>48.781658891111611</v>
       </c>
-      <c r="L183" s="4">
+      <c r="L183" s="8">
         <v>50.326248168289659</v>
       </c>
-      <c r="Q183">
+      <c r="Q183" s="5">
         <v>47</v>
       </c>
-      <c r="R183">
+      <c r="R183" s="5">
         <v>47.4</v>
       </c>
-      <c r="S183">
+      <c r="S183" s="5">
         <v>46.95</v>
       </c>
-      <c r="T183">
+      <c r="T183" s="5">
         <v>47.15</v>
       </c>
-      <c r="U183">
-        <v>3.9538140859506153E-2</v>
-      </c>
-      <c r="V183">
-        <v>1</v>
-      </c>
-      <c r="W183">
-        <v>4</v>
-      </c>
-      <c r="X183">
+      <c r="U183" s="5">
+        <v>3.9538140859506153E-2</v>
+      </c>
+      <c r="V183" s="5">
+        <v>1</v>
+      </c>
+      <c r="W183" s="5">
+        <v>4</v>
+      </c>
+      <c r="X183" s="5">
         <v>1.8032469165265539</v>
       </c>
-      <c r="Y183">
+      <c r="Y183" s="5">
         <v>3.8043183892965272E-2</v>
       </c>
-      <c r="Z183">
+      <c r="Z183" s="5">
         <v>1.831658891111609</v>
       </c>
-      <c r="AA183">
+      <c r="AA183" s="5">
         <v>3.901296892676482E-2</v>
       </c>
-      <c r="AB183">
+      <c r="AB183" s="5">
         <v>3.1762481682896611</v>
       </c>
-      <c r="AC183">
+      <c r="AC183" s="5">
         <v>6.7364754364573926E-2</v>
       </c>
-      <c r="AD183">
-        <v>1</v>
-      </c>
-      <c r="AE183">
+      <c r="AD183" s="5">
+        <v>1</v>
+      </c>
+      <c r="AE183" s="5">
         <v>2</v>
       </c>
     </row>
